--- a/data/long_razon/P23_10-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_10-Urba-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-26,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-14,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-17,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,9%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-44,39; -5,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-38,75; 10,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 20,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 30,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,01; -2,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,15; 12,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-26,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-24,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 60,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,81; 1,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,98; 0,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,65; 32,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 14,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,81; 2,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-42,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>35,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>52,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-69,84; 30,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-33,83; 237,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 150,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 126,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,77; 36,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 135,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-10,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1144,82 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,95; 1,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 3,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 7,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 22,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,24; -1,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 8,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P23_10-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_10-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +787,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1212,14 +913,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P23_10-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_10-Urba-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.278360916076295</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1337740977122981</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.3310088282064448</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.1052667279868384</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.03199958583952302</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.03020794959861959</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.1439282408269244</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.1357437207502363</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.1677138210804955</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.0576651793602398</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.2413217297572882</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.01305581550676969</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.4380564609974029</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.377186908964476</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.03067526001412703</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1582551996960526</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.251950030435705</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.1896353304427505</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.1452048041543771</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.3456567415315767</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3126323737186218</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.2087913328984751</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.001868771929945706</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.1869910562116946</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>-0.03277996348203963</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.1326516960360414</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.018629574507889</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.4824373160156622</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.2426837847968191</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.250518890386171</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.524339242837316</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.1350154118704461</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.003548997214829255</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.1323694354762736</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.6565336597637755</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.2016254101057299</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.1614613313874412</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.2506740638542099</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.02617772382771913</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.1215672759090595</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.2211120190695836</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.0679210347571113</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.04398867428823487</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.1357047606197706</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.0587103062005862</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.1738841805919108</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.03541249990120979</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.1285006476310341</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.1683987513045126</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.4463049145988041</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3105391433483477</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.3800200132613704</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.397578710633548</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2999017683612114</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2987387821603504</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.3032840826610103</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.2322275545058523</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.3330120242503456</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.2309678113678358</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.2065009952939767</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.6339983175937117</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.004229823114961431</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4957138535574643</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.9325100119949163</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.03807119049761835</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.2068099565244739</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.2955562578626448</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.9489112845498773</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.1403156195435026</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.003421865299098874</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.2706697308419795</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.6536282309334966</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,17 +931,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.4023923866261263</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.7317188331985305</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1682677473483318</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>0.2682906798809295</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.3250826109423808</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.1619852618590524</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>-0.153810599597174</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.4993092852825567</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.1659238035718623</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +969,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.7173364301351299</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3826335734823941</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.4801354491431925</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>-0.2450835365922011</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.2336885973652797</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.4369471943369044</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>-0.4458011739549834</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.06697910182641564</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.3317693779663162</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +1007,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.2793568232724173</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.529352966381615</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.005077816538556</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>1.203894602378098</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.148273811776115</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.391478015413756</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>0.3526466243192106</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.300422691612885</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1.306455822865434</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,18 +1049,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.1562834518801308</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.1248420000027768</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1711484071837795</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1086516091429717</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.08968084547283833</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.02570465466947794</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.06283152390819571</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.07946891996955044</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.1237683020969646</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.05625271155770022</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.1188574526574173</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.016315289457323</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1093,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.3026311313433525</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2930363673702355</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.06242091785385677</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.1272972499829998</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.2394756996052466</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.1204416917628766</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1240995719456075</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2612996731346072</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.22978071898492</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.1669949514535445</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.05877235632576021</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.1375101779825202</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1137,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.02186714996691718</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.05428149933803789</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.5966121159168177</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.41028743655401</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.070766907486492</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.2198620228816548</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.2815958718887038</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.1510969181847233</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.006080938794437064</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.0720497985536673</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.3380754682501618</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.2066503206696486</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
